--- a/biology/Médecine/Max_de_Crinis/Max_de_Crinis.xlsx
+++ b/biology/Médecine/Max_de_Crinis/Max_de_Crinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max de Crinis (né le 29 mai 1889 à Ehrenhausen près de Graz, mort le 2 mai 1945 à Stahnsdorf près de Berlin) était un psychiatre et neurologue qui a exercé pendant le Troisième Reich nazi. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max de Crinis avait fui l'Autriche et, au sein des psychothérapeutes de l'Institut Göring, le bruit courait qu'il avait dû quitter son pays après avoir participé à une tentative de putsch[1]. Il affichait des positions ouvertement antisémites. À l'instar de collègues comme Alfred Hoche, il était très virulent contre toute forme de psychothérapie, pour lui et a fortiori plus encore contre la psychanalyse freudienne qu'il voyait comme « une orientation juive » à bannir. Tout au plus pouvait-il admettre que la psychothérapie devait être une méthode accessoire pour une science nosologique et physiologique. Il s'était par ailleurs opposé à plusieurs reprises à son collègue Matthias Göring qui dirigeait l'institut de psychothérapie nazie.
-Max de Crinis a dirigé la clinique universitaire neurologique de Cologne et la clinique psychiatrique et neurologique de la Charité à Berlin. Il était SS-Standartenführer et consultant ministériel pour les questions médicales au bureau scientifique du Ministère du Reich pour la science, l'éducation et  la propagande (en allemand : Reichsministeriums für Wissenschaft, Erziehung und Volksbildung). C'est à ce titre qu'il a préparé le Programme Aktion T4 d'euthanasie et participé à sa réalisation. Il se suicide le 2 mai 1945[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max de Crinis avait fui l'Autriche et, au sein des psychothérapeutes de l'Institut Göring, le bruit courait qu'il avait dû quitter son pays après avoir participé à une tentative de putsch. Il affichait des positions ouvertement antisémites. À l'instar de collègues comme Alfred Hoche, il était très virulent contre toute forme de psychothérapie, pour lui et a fortiori plus encore contre la psychanalyse freudienne qu'il voyait comme « une orientation juive » à bannir. Tout au plus pouvait-il admettre que la psychothérapie devait être une méthode accessoire pour une science nosologique et physiologique. Il s'était par ailleurs opposé à plusieurs reprises à son collègue Matthias Göring qui dirigeait l'institut de psychothérapie nazie.
+Max de Crinis a dirigé la clinique universitaire neurologique de Cologne et la clinique psychiatrique et neurologique de la Charité à Berlin. Il était SS-Standartenführer et consultant ministériel pour les questions médicales au bureau scientifique du Ministère du Reich pour la science, l'éducation et  la propagande (en allemand : Reichsministeriums für Wissenschaft, Erziehung und Volksbildung). C'est à ce titre qu'il a préparé le Programme Aktion T4 d'euthanasie et participé à sa réalisation. Il se suicide le 2 mai 1945.
 </t>
         </is>
       </c>
@@ -545,9 +559,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Filmographie
-Télévision
-2017 : Lukas Miko le joue dans Charité.</t>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2017 : Lukas Miko le joue dans Charité.</t>
         </is>
       </c>
     </row>
